--- a/Wavelet5-BOM.xlsx
+++ b/Wavelet5-BOM.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/untitled folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/Wavelet/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F69E54B-18E5-4C46-8862-37CBC66A747D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21160" xr2:uid="{14FB718B-E8B5-674E-A41E-2F89E10D8C3F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{14FB718B-E8B5-674E-A41E-2F89E10D8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="wavelet6" localSheetId="0">Sheet1!$A$1:$H$37</definedName>
+    <definedName name="wavelet6" localSheetId="0">Sheet1!$A$1:$I$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
   <si>
     <t>Qty</t>
   </si>
@@ -195,12 +201,6 @@
     <t>4.7u</t>
   </si>
   <si>
-    <t>CPOL-USB</t>
-  </si>
-  <si>
-    <t>PANASONIC_B</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -255,15 +255,9 @@
     <t>Trimm resistor</t>
   </si>
   <si>
-    <t>R22</t>
-  </si>
-  <si>
     <t>6.8k</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>62k</t>
   </si>
   <si>
@@ -328,12 +322,6 @@
   </si>
   <si>
     <t>PNP Transistror</t>
-  </si>
-  <si>
-    <t>OG-PJ301_PJ301_THONKICONN</t>
-  </si>
-  <si>
-    <t>OG-PJ301_WQP_PJ_301M6_NO_HOLE</t>
   </si>
   <si>
     <t>FM_CV, FREQ_CV, GAIN_CV, INPUT, OUTPUT, RES_CV</t>
@@ -414,12 +402,183 @@
       <t>(IC2 &amp; IC3 PIN 1 SHOLD BE BOTTOM LEFT!)</t>
     </r>
   </si>
+  <si>
+    <t>Mouser / Source</t>
+  </si>
+  <si>
+    <t>71-CRCW06036K80FKEAC</t>
+  </si>
+  <si>
+    <t>71-CRCW0603510RFKEAC</t>
+  </si>
+  <si>
+    <t>71-CRCW06031K00FKEAC</t>
+  </si>
+  <si>
+    <t>R1, R22</t>
+  </si>
+  <si>
+    <t>71-CRCW06033K60FKEAC</t>
+  </si>
+  <si>
+    <t>71-CRCW060315K0FKEAC</t>
+  </si>
+  <si>
+    <t>71-CRCW060322K0FKEAC</t>
+  </si>
+  <si>
+    <t>667-ERJ-3RBD2702V</t>
+  </si>
+  <si>
+    <t>603-AC0603FR-1333KL</t>
+  </si>
+  <si>
+    <t>71-CRCW060339K0FKEAC</t>
+  </si>
+  <si>
+    <t>71-CRCW060347K0JNEAC</t>
+  </si>
+  <si>
+    <t>603-AC0603FR-1362KL</t>
+  </si>
+  <si>
+    <t>71-CRCW0603100KFKEAC</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07300KL</t>
+  </si>
+  <si>
+    <t>THONKICONN</t>
+  </si>
+  <si>
+    <t>PJ301_WQP_PJ_301M6</t>
+  </si>
+  <si>
+    <t>642-MHS233K</t>
+  </si>
+  <si>
+    <t>80-C0603C470J5GAC</t>
+  </si>
+  <si>
+    <t>77-VJ0603A221GXACBC</t>
+  </si>
+  <si>
+    <t>C0603 C0G/NP0</t>
+  </si>
+  <si>
+    <t>C0603 C0G/NP0 Tol &lt; 2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603 C0G/NP0 </t>
+  </si>
+  <si>
+    <t>77-VJ0603A561GXACBC</t>
+  </si>
+  <si>
+    <t>603-CC603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>603-CC0603JRX79BB224</t>
+  </si>
+  <si>
+    <r>
+      <t>PANASONIC_B  -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NP-</t>
+    </r>
+  </si>
+  <si>
+    <t>647-UWP1C4R7MCL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CPOL-USB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non Polarized!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>667-EEE-FK1V470P</t>
+  </si>
+  <si>
+    <t>621-1N5819HW-F</t>
+  </si>
+  <si>
+    <t>512-1N4148WS</t>
+  </si>
+  <si>
+    <t>604-AAA3528LSEEZGKQB</t>
+  </si>
+  <si>
+    <t>595-TL072CD</t>
+  </si>
+  <si>
+    <t>576-1206L035/16YR</t>
+  </si>
+  <si>
+    <t>926-LM13700M/NOPB</t>
+  </si>
+  <si>
+    <t>863-MMBT3906TT1G</t>
+  </si>
+  <si>
+    <t>595-LM4040C50IDBZR</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/coolaudio-v2164-all/</t>
+  </si>
+  <si>
+    <t>SMD!!</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/thonkiconn/</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/10pcs-2-40Pin-SMD-SMT-2-40Pin-Male-Double-Row-Pin-Header-Connector-2-54MM-Pitch/182570982083?hash=item2a82141ac3:g:InUAAOSwnipWaTjr:rk:10:pf:0</t>
+  </si>
+  <si>
+    <t>652-3296Y-1-502LF</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/alpha-9mm-pots-dshaft/</t>
+  </si>
+  <si>
+    <t>Knobs that fits your pots…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,6 +598,20 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -482,9 +655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -804,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0354E312-076E-9942-AA04-2D78C4BC104E}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -817,10 +991,11 @@
     <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.83203125" customWidth="1"/>
+    <col min="7" max="7" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,15 +1012,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1">
+    <row r="2" spans="1:7" ht="17" thickTop="1">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -854,18 +1032,21 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -874,18 +1055,21 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -894,18 +1078,21 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -914,18 +1101,21 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -934,18 +1124,21 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -954,18 +1147,21 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -974,18 +1170,21 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -994,18 +1193,21 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1014,18 +1216,21 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1034,18 +1239,21 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1054,18 +1262,21 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1074,18 +1285,21 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" ht="17" thickBot="1">
       <c r="A14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1094,79 +1308,91 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="17" spans="1:6" ht="17" thickTop="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="16" spans="1:7" ht="17" thickTop="1">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1175,18 +1401,21 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1195,135 +1424,156 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" thickBot="1">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>1</v>
-      </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1">
-      <c r="A23">
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="24" spans="1:7" ht="17" thickTop="1">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="25" spans="1:6" ht="17" thickTop="1">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" ht="17" thickBot="1">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1">
-      <c r="A27">
+        <v>140</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="28" spans="1:7" ht="17" thickTop="1">
+      <c r="A28">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>77</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="29" spans="1:6" ht="17" thickTop="1">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1331,202 +1581,223 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="35" spans="1:7" ht="17" thickTop="1">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>91</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
         <v>92</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E36" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" thickBot="1">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="36" spans="1:6" ht="17" thickTop="1">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Wavelet5-BOM.xlsx
+++ b/Wavelet5-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/Wavelet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F69E54B-18E5-4C46-8862-37CBC66A747D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90100E2B-DE14-A545-A093-621D370367B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{14FB718B-E8B5-674E-A41E-2F89E10D8C3F}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
   <si>
     <t>Qty</t>
   </si>
@@ -373,34 +373,6 @@
   </si>
   <si>
     <t>3.6k</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>IC2, IC3,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IC6, IC7, IC8 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>(IC2 &amp; IC3 PIN 1 SHOLD BE BOTTOM LEFT!)</t>
-    </r>
   </si>
   <si>
     <t>Mouser / Source</t>
@@ -573,12 +545,50 @@
   <si>
     <t>Knobs that fits your pots…</t>
   </si>
+  <si>
+    <t>Mouser Cart:</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=751e21de3c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>IC2, IC3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IC6, IC7, IC8</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,11 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)_x0000_"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,6 +617,33 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF004A85"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="3">
@@ -655,10 +687,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -978,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0354E312-076E-9942-AA04-2D78C4BC104E}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1012,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1035,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1058,7 +1092,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1081,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1101,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1127,7 +1161,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1150,7 +1184,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1173,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1196,7 +1230,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1219,7 +1253,7 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1242,7 +1276,7 @@
         <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1265,7 +1299,7 @@
         <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -1288,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1311,7 +1345,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -1329,13 +1363,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1352,13 +1386,13 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -1375,13 +1409,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -1404,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -1427,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -1441,16 +1475,16 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
@@ -1473,7 +1507,7 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
@@ -1497,7 +1531,7 @@
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1520,7 +1554,7 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1543,7 +1577,7 @@
         <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
         <v>75</v>
@@ -1567,7 +1601,7 @@
         <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
         <v>79</v>
@@ -1590,7 +1624,7 @@
         <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G29" t="s">
         <v>84</v>
@@ -1613,7 +1647,7 @@
         <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
         <v>89</v>
@@ -1636,7 +1670,7 @@
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -1656,10 +1690,10 @@
         <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
         <v>100</v>
@@ -1682,10 +1716,10 @@
         <v>104</v>
       </c>
       <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
         <v>146</v>
-      </c>
-      <c r="G33" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
@@ -1694,19 +1728,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
         <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>124</v>
       </c>
       <c r="E35" t="s">
         <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1726,7 +1760,7 @@
         <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1746,7 +1780,7 @@
         <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
         <v>66</v>
@@ -1769,7 +1803,7 @@
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1777,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1797,7 +1831,15 @@
         <v>71</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="24">
+      <c r="B43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
